--- a/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>EAWD</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,60 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,8 +746,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -772,8 +778,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,8 +810,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,11 +853,14 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,8 +920,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,14 +946,17 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,16 +965,17 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -964,13 +990,16 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -978,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -993,13 +1022,16 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,8 +1043,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1020,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1029,19 +1062,22 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1063,34 +1099,37 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1098,8 +1137,11 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1122,13 +1164,16 @@
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1156,8 +1201,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,8 +1233,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1209,13 +1260,16 @@
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1238,13 +1292,16 @@
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,8 +1425,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1368,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1377,19 +1446,22 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1412,13 +1484,16 @@
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,8 +1521,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1470,47 +1548,53 @@
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,8 +1620,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1564,8 +1650,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,8 +1682,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1622,8 +1714,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1651,8 +1746,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1665,8 +1763,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -1680,8 +1778,11 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1694,8 +1795,8 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
+      <c r="G46" s="3">
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>4</v>
@@ -1709,8 +1810,11 @@
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1738,8 +1842,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1767,8 +1874,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1796,8 +1906,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,8 +1970,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1883,8 +2002,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,8 +2034,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1926,8 +2051,8 @@
       <c r="F54" s="3">
         <v>0</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
+      <c r="G54" s="3">
+        <v>0</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>4</v>
@@ -1941,8 +2066,11 @@
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,23 +2096,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
@@ -1996,23 +2126,26 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2025,8 +2158,11 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2034,14 +2170,14 @@
         <v>3000</v>
       </c>
       <c r="E59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2054,23 +2190,26 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2083,8 +2222,11 @@
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2112,8 +2254,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2141,8 +2286,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,23 +2382,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3900</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2257,8 +2414,11 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,23 +2556,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2415,8 +2588,11 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,23 +2684,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>4</v>
       </c>
@@ -2531,8 +2716,11 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,42 +2748,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2618,13 +2812,16 @@
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +2833,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2659,14 +2857,17 @@
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,8 +3023,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2819,10 +3035,10 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -2834,13 +3050,16 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3071,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,8 +3165,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2950,8 +3179,8 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -2960,16 +3189,19 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,8 +3339,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3106,10 +3351,10 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -3118,16 +3363,19 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3155,8 +3403,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3182,6 +3433,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>EAWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,68 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -749,8 +757,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -781,8 +795,14 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +833,14 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +853,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,11 +884,17 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +925,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,8 +963,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -949,14 +995,20 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,22 +1018,24 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -993,13 +1047,19 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1007,14 +1067,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
@@ -1025,13 +1085,19 @@
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1110,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1053,31 +1121,37 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1102,14 +1176,20 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1119,37 +1199,43 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
@@ -1167,13 +1253,19 @@
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1204,8 +1296,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,16 +1334,22 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
@@ -1263,21 +1367,27 @@
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
@@ -1295,13 +1405,19 @@
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1448,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1486,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1524,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,8 +1562,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1437,39 +1577,45 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
@@ -1487,13 +1633,19 @@
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,16 +1676,22 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
@@ -1551,50 +1709,62 @@
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1777,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,8 +1793,10 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1653,8 +1827,14 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,8 +1865,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1717,8 +1903,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1749,16 +1941,22 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -1766,11 +1964,11 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -1781,16 +1979,22 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -1798,11 +2002,11 @@
       <c r="G46" s="3">
         <v>0</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -1813,8 +2017,14 @@
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1845,8 +2055,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1877,8 +2093,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1909,8 +2131,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2169,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,8 +2207,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2005,8 +2245,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,16 +2283,22 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2054,11 +2306,11 @@
       <c r="G54" s="3">
         <v>0</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
@@ -2069,8 +2321,14 @@
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2341,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,8 +2357,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2109,17 +2371,17 @@
         <v>1200</v>
       </c>
       <c r="F57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2129,8 +2391,14 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2138,20 +2406,20 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2161,29 +2429,35 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2193,29 +2467,35 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2225,8 +2505,14 @@
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2257,8 +2543,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2289,8 +2581,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2619,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2657,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,29 +2695,35 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F66" s="3">
         <v>4400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3900</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2417,8 +2733,14 @@
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2753,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2787,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2825,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2863,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,29 +2901,35 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-11700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2591,8 +2939,14 @@
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2977,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +3015,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,29 +3053,35 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
@@ -2719,8 +3091,14 @@
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,53 +3129,65 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
@@ -2815,13 +3205,19 @@
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,40 +3230,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3302,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3340,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3378,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3416,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,25 +3454,31 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -3053,13 +3487,19 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3512,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3098,14 +3540,20 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3584,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,8 +3622,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3182,26 +3642,32 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3680,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3714,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3752,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3790,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,40 +3828,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3406,8 +3904,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3436,6 +3940,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>EAWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,72 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -763,8 +767,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -801,8 +808,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +849,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,11 +904,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,8 +948,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -969,8 +989,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,14 +1024,17 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,25 +1046,26 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1053,13 +1080,16 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1067,17 +1097,17 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
@@ -1091,13 +1121,16 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,8 +1145,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1121,17 +1155,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1139,19 +1173,22 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1182,14 +1219,17 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1205,20 +1245,20 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1226,19 +1266,22 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
@@ -1259,13 +1302,16 @@
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1284,11 +1330,11 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1302,8 +1348,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,19 +1389,22 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
@@ -1373,24 +1425,27 @@
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
@@ -1411,13 +1466,16 @@
         <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,8 +1635,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1577,17 +1647,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1595,30 +1665,33 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
@@ -1639,13 +1712,16 @@
         <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,19 +1758,22 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
@@ -1715,56 +1794,62 @@
         <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,31 +1881,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -1833,8 +1920,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,8 +1961,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1909,8 +2002,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1947,8 +2043,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1959,7 +2058,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1970,8 +2069,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -1985,19 +2084,22 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2008,8 +2110,8 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
@@ -2023,8 +2125,11 @@
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2061,8 +2166,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2099,8 +2207,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,8 +2330,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2251,8 +2371,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,19 +2412,22 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -2312,8 +2438,8 @@
       <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
@@ -2327,8 +2453,11 @@
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,8 +2489,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2368,23 +2499,23 @@
         <v>1100</v>
       </c>
       <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2397,32 +2528,35 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2435,32 +2569,35 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>3000</v>
       </c>
       <c r="G59" s="3">
         <v>3000</v>
       </c>
       <c r="H59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2473,32 +2610,35 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E60" s="3">
         <v>2200</v>
       </c>
       <c r="F60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2511,8 +2651,11 @@
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2549,8 +2692,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2587,8 +2733,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,32 +2856,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E66" s="3">
         <v>2200</v>
       </c>
       <c r="F66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2739,8 +2897,11 @@
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,32 +3078,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2945,8 +3119,11 @@
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,32 +3242,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="E76" s="3">
         <v>-2100</v>
       </c>
       <c r="F76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3097,8 +3283,11 @@
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,62 +3324,68 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
@@ -3211,13 +3406,16 @@
         <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3258,20 +3457,23 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,28 +3674,31 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>-200</v>
-      </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -3493,13 +3710,16 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,8 +3734,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3546,14 +3767,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,8 +3855,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3648,8 +3878,8 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -3658,16 +3888,19 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,28 +4077,31 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -3864,16 +4110,19 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3910,8 +4159,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3946,6 +4198,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>EAWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,66 +671,81 @@
     <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,8 +785,20 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,8 +838,20 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +891,20 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,8 +920,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,11 +962,23 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,8 +1018,20 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,31 +1071,43 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1027,14 +1118,26 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,8 +1150,12 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1056,19 +1163,19 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1077,19 +1184,31 @@
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1097,40 +1216,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,8 +1277,12 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1155,22 +1290,22 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1187,8 +1322,20 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1222,25 +1369,37 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>400</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1248,8 +1407,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1257,11 +1416,11 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1269,8 +1428,20 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1278,22 +1449,22 @@
         <v>-500</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
@@ -1305,13 +1476,25 @@
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1321,8 +1504,8 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1330,11 +1513,11 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1342,17 +1525,29 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,8 +1587,20 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1401,22 +1608,22 @@
         <v>-500</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
@@ -1428,13 +1635,25 @@
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1442,22 +1661,22 @@
         <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
@@ -1469,13 +1688,25 @@
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1746,20 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1799,20 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1852,20 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,8 +1905,20 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1647,22 +1926,22 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>200</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1679,8 +1958,20 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1688,22 +1979,22 @@
         <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
@@ -1715,13 +2006,25 @@
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,8 +2064,20 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1770,22 +2085,22 @@
         <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
@@ -1797,59 +2112,83 @@
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +2204,12 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,25 +2225,29 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
@@ -1908,23 +2255,35 @@
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,31 +2323,43 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2005,31 +2376,43 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2046,90 +2429,126 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>400</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2169,31 +2588,43 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2210,8 +2641,20 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2251,8 +2694,20 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2747,20 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,8 +2800,20 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2374,8 +2853,20 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2906,73 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>400</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2988,12 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,8 +3009,12 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2499,163 +3022,211 @@
         <v>1100</v>
       </c>
       <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
+        <v>900</v>
+      </c>
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>3900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2695,8 +3266,20 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2706,20 +3289,20 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2736,8 +3319,20 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +3372,20 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +3425,20 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3478,73 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>3900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3560,12 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3605,20 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3658,20 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3711,20 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3764,73 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-13300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>-12800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>-12000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-11900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-11700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-11500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-11200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3870,20 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3923,20 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3976,73 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>-2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>-2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>-4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>-4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>-3900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,54 +4082,78 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3382,22 +4161,22 @@
         <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
@@ -3409,13 +4188,25 @@
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +4222,12 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3460,11 +4255,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3472,8 +4267,20 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +4320,20 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +4373,20 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +4426,20 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +4479,20 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,31 +4532,43 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -3710,16 +4577,28 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,8 +4614,12 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3770,14 +4653,26 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4712,20 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,49 +4765,73 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4847,12 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4892,20 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4945,20 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4998,20 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,31 +5051,43 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -4116,13 +5099,25 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4135,17 +5130,17 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4162,19 +5157,31 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -4201,6 +5208,18 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>EAWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,94 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,8 +804,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -850,8 +863,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -903,8 +922,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +949,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,11 +1001,17 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,8 +1063,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1122,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,11 +1154,11 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1130,14 +1175,20 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1154,43 +1205,45 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1202,13 +1255,19 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1216,35 +1275,35 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
@@ -1255,13 +1314,19 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,8 +1346,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1290,60 +1357,66 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>-1400</v>
       </c>
       <c r="F20" s="3">
-        <v>300</v>
+        <v>-200</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>-200</v>
+        <v>300</v>
       </c>
       <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-1700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1381,32 +1454,38 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1419,58 +1498,64 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
       <c r="L23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
@@ -1488,13 +1573,19 @@
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1504,14 +1595,14 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1525,17 +1616,17 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1546,8 +1637,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,37 +1696,43 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-6200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
       <c r="L26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
@@ -1647,42 +1750,48 @@
         <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
       <c r="L27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
@@ -1700,13 +1809,19 @@
         <v>-200</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1758,8 +1873,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1811,8 +1932,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1864,8 +1991,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1917,8 +2050,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1926,81 +2065,87 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="F32" s="3">
-        <v>-300</v>
+        <v>200</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-6200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
       <c r="L33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
@@ -2018,13 +2163,19 @@
         <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2076,37 +2227,43 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-6200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
       <c r="L35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
@@ -2124,71 +2281,83 @@
         <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,8 +2377,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2229,31 +2400,33 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
@@ -2267,11 +2440,11 @@
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2282,8 +2455,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2335,8 +2514,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2352,20 +2537,20 @@
       <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2388,8 +2573,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2397,13 +2588,13 @@
         <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -2414,11 +2605,11 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2441,37 +2632,43 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2479,11 +2676,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2494,49 +2691,55 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
@@ -2547,8 +2750,14 @@
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2600,8 +2809,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2611,11 +2826,11 @@
       <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -2626,11 +2841,11 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2653,8 +2868,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2706,8 +2927,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +2986,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2812,8 +3045,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2865,8 +3104,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,49 +3163,55 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
@@ -2971,8 +3222,14 @@
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +3249,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,31 +3272,33 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1200</v>
       </c>
       <c r="K57" s="3">
         <v>1100</v>
@@ -3046,17 +3307,17 @@
         <v>1200</v>
       </c>
       <c r="M57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3066,50 +3327,56 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>200</v>
-      </c>
       <c r="J58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
       </c>
       <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3119,50 +3386,56 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3172,50 +3445,56 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2000</v>
       </c>
       <c r="H60" s="3">
         <v>2100</v>
       </c>
       <c r="I60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3225,8 +3504,14 @@
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3278,8 +3563,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3289,11 +3580,11 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3304,11 +3595,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3331,8 +3622,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3384,8 +3681,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,8 +3740,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,50 +3799,56 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2000</v>
       </c>
       <c r="H66" s="3">
         <v>2100</v>
       </c>
       <c r="I66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3543,8 +3858,14 @@
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3564,8 +3885,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3617,8 +3940,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3670,8 +3999,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3723,8 +4058,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,50 +4117,56 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-20200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-19800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-19400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-13300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-12800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-11500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3829,8 +4176,14 @@
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3882,8 +4235,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3935,8 +4294,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3988,50 +4353,56 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4041,8 +4412,14 @@
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4094,95 +4471,107 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-6200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
       <c r="L81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
@@ -4200,13 +4589,19 @@
         <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4226,8 +4621,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4237,20 +4634,20 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4267,20 +4664,26 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4332,8 +4735,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4385,8 +4794,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4438,8 +4853,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,8 +4912,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4544,46 +4971,52 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -4592,13 +5025,19 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4618,8 +5057,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4629,20 +5070,20 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4665,14 +5106,20 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,8 +5171,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4777,61 +5230,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4851,8 +5316,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4904,8 +5371,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4957,8 +5430,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5010,8 +5489,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5063,61 +5548,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>300</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>300</v>
+      </c>
+      <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5130,11 +5627,11 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
@@ -5142,11 +5639,11 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5169,8 +5666,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5178,17 +5681,17 @@
         <v>-200</v>
       </c>
       <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5220,6 +5723,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>EAWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,121 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42185</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -810,8 +814,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -821,8 +828,8 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>400</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -869,8 +876,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,8 +890,8 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>300</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -928,8 +938,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,8 +964,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,11 +1021,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,8 +1086,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1128,8 +1148,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1181,14 +1204,17 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,8 +1233,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1216,37 +1243,37 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1261,51 +1288,54 @@
         <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
-        <v>-300</v>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
@@ -1320,13 +1350,16 @@
         <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,47 +1381,48 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>-1400</v>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1396,31 +1430,34 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1460,35 +1497,38 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1504,20 +1544,20 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
@@ -1525,40 +1565,43 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-400</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
@@ -1579,13 +1622,16 @@
         <v>-200</v>
       </c>
       <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1601,11 +1647,11 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1622,14 +1668,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1643,8 +1689,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,40 +1751,43 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
@@ -1756,45 +1808,48 @@
         <v>-200</v>
       </c>
       <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-400</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
@@ -1815,13 +1870,16 @@
         <v>-200</v>
       </c>
       <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1937,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1938,8 +1999,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,47 +2123,50 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>1400</v>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>200</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2104,51 +2174,54 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-400</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
@@ -2169,13 +2242,16 @@
         <v>-200</v>
       </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,40 +2309,43 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-400</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
@@ -2287,77 +2366,83 @@
         <v>-200</v>
       </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42185</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,34 +2488,35 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
@@ -2446,8 +2533,8 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2461,8 +2548,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2520,13 +2610,16 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2543,8 +2636,8 @@
       <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2552,8 +2645,8 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2579,8 +2672,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2588,16 +2684,16 @@
         <v>400</v>
       </c>
       <c r="E44" s="3">
+        <v>400</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2611,8 +2707,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2638,31 +2734,34 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
       </c>
       <c r="H45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>400</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2671,7 +2770,7 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2682,8 +2781,8 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
@@ -2697,40 +2796,43 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2741,8 +2843,8 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
@@ -2756,8 +2858,11 @@
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2815,13 +2920,16 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2832,8 +2940,8 @@
       <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2847,8 +2955,8 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2874,8 +2982,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2933,8 +3044,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,8 +3168,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3110,8 +3230,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,40 +3292,43 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E54" s="3">
         <v>1300</v>
       </c>
       <c r="F54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -3213,8 +3339,8 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
+      <c r="Q54" s="3">
+        <v>0</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
@@ -3228,8 +3354,11 @@
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,53 +3404,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>1100</v>
       </c>
       <c r="G57" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="H57" s="3">
         <v>800</v>
       </c>
       <c r="I57" s="3">
+        <v>800</v>
+      </c>
+      <c r="J57" s="3">
         <v>900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1100</v>
       </c>
       <c r="K57" s="3">
         <v>1100</v>
       </c>
       <c r="L57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3333,8 +3464,11 @@
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3342,44 +3476,44 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3392,53 +3526,56 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>900</v>
       </c>
       <c r="J59" s="3">
         <v>900</v>
       </c>
       <c r="K59" s="3">
+        <v>900</v>
+      </c>
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>3000</v>
       </c>
       <c r="N59" s="3">
         <v>3000</v>
       </c>
       <c r="O59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3451,53 +3588,56 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2200</v>
       </c>
       <c r="L60" s="3">
         <v>2200</v>
       </c>
       <c r="M60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N60" s="3">
         <v>4400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3510,8 +3650,11 @@
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3569,8 +3712,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3586,8 +3732,8 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -3601,8 +3747,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3628,8 +3774,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,53 +3960,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>1200</v>
       </c>
       <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2200</v>
       </c>
       <c r="L66" s="3">
         <v>2200</v>
       </c>
       <c r="M66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N66" s="3">
         <v>4400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3864,8 +4022,11 @@
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,53 +4294,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4182,8 +4356,11 @@
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,53 +4542,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1600</v>
       </c>
       <c r="I76" s="3">
         <v>-1600</v>
       </c>
       <c r="J76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-2100</v>
       </c>
       <c r="L76" s="3">
         <v>-2100</v>
       </c>
       <c r="M76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N76" s="3">
         <v>-4400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4418,8 +4604,11 @@
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,104 +4666,110 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42185</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-400</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
@@ -4595,13 +4790,16 @@
         <v>-200</v>
       </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,8 +4821,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4634,8 +4833,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -4649,8 +4848,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4670,20 +4869,23 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,19 +5191,22 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>-600</v>
       </c>
       <c r="F89" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
@@ -4998,28 +5215,28 @@
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -5031,13 +5248,16 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,8 +5279,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5070,8 +5291,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -5085,8 +5306,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5112,14 +5333,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,19 +5463,22 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -5262,14 +5492,14 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
@@ -5277,8 +5507,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5287,16 +5517,19 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5551,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5377,8 +5611,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,49 +5797,52 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -5605,16 +5851,19 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5633,8 +5882,8 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
@@ -5645,8 +5894,8 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5672,29 +5921,32 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -5729,6 +5981,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>EAWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,102 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42185</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,12 +770,12 @@
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
@@ -781,8 +785,8 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -817,8 +821,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,12 +835,12 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -879,8 +886,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,12 +900,12 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -941,8 +951,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -965,8 +978,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,11 +1038,14 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,8 +1106,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1151,8 +1171,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1162,20 +1185,20 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1186,8 +1209,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1207,14 +1230,17 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,49 +1260,50 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
@@ -1291,13 +1318,16 @@
         <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1307,12 +1337,12 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1322,23 +1352,23 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
@@ -1353,13 +1383,16 @@
         <v>-200</v>
       </c>
       <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,8 +1415,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1393,12 +1427,12 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1408,24 +1442,24 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1433,19 +1467,22 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1455,12 +1492,12 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1500,14 +1537,17 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1515,23 +1555,23 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1547,20 +1587,20 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
@@ -1568,43 +1608,46 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-400</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
       </c>
       <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
@@ -1625,13 +1668,16 @@
         <v>-200</v>
       </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1650,11 +1696,11 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1671,14 +1717,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1692,8 +1738,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,43 +1803,46 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
       </c>
       <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
@@ -1811,48 +1863,51 @@
         <v>-200</v>
       </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
       </c>
       <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
@@ -1873,13 +1928,16 @@
         <v>-200</v>
       </c>
       <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +1998,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2002,8 +2063,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2128,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,8 +2193,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2137,12 +2207,12 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2152,24 +2222,24 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2177,54 +2247,57 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
       </c>
       <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
@@ -2245,13 +2318,16 @@
         <v>-200</v>
       </c>
       <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,43 +2388,46 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
       </c>
       <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
@@ -2369,80 +2448,86 @@
         <v>-200</v>
       </c>
       <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42185</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2550,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,8 +2575,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2498,28 +2585,28 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
@@ -2536,8 +2623,8 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2551,8 +2638,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2613,8 +2703,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2622,7 +2715,7 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2639,8 +2732,8 @@
       <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>100</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2648,8 +2741,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2675,8 +2768,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2687,16 +2783,16 @@
         <v>400</v>
       </c>
       <c r="F44" s="3">
+        <v>400</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2710,8 +2806,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2737,8 +2833,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2749,22 +2848,22 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
       </c>
       <c r="I45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2773,7 +2872,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2784,8 +2883,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -2799,43 +2898,46 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2846,8 +2948,8 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
+      <c r="R46" s="3">
+        <v>0</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
@@ -2861,8 +2963,11 @@
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2923,16 +3028,19 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
-      </c>
-      <c r="E48" s="3">
-        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2943,8 +3051,8 @@
       <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2958,8 +3066,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2985,8 +3093,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3047,8 +3158,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3223,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,8 +3288,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3233,8 +3353,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,43 +3418,46 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1300</v>
       </c>
       <c r="F54" s="3">
         <v>1300</v>
       </c>
       <c r="G54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -3342,8 +3468,8 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
+      <c r="R54" s="3">
+        <v>0</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
@@ -3357,8 +3483,11 @@
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3510,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,8 +3535,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3417,44 +3548,44 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>1100</v>
       </c>
       <c r="H57" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
       </c>
       <c r="J57" s="3">
+        <v>800</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1100</v>
       </c>
       <c r="L57" s="3">
         <v>1100</v>
       </c>
       <c r="M57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3467,8 +3598,11 @@
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3479,44 +3613,44 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3529,8 +3663,11 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3538,47 +3675,47 @@
         <v>900</v>
       </c>
       <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>900</v>
       </c>
       <c r="K59" s="3">
         <v>900</v>
       </c>
       <c r="L59" s="3">
+        <v>900</v>
+      </c>
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>3000</v>
       </c>
       <c r="O59" s="3">
         <v>3000</v>
       </c>
       <c r="P59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3591,8 +3728,11 @@
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3600,47 +3740,47 @@
         <v>1200</v>
       </c>
       <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2200</v>
       </c>
       <c r="M60" s="3">
         <v>2200</v>
       </c>
       <c r="N60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O60" s="3">
         <v>4400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3653,8 +3793,11 @@
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3715,8 +3858,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3735,8 +3881,8 @@
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3750,8 +3896,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3777,8 +3923,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +3988,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4053,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,56 +4118,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2200</v>
       </c>
       <c r="M66" s="3">
         <v>2200</v>
       </c>
       <c r="N66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4025,8 +4183,11 @@
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4210,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4273,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4338,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4235,8 +4403,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,56 +4468,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4359,8 +4533,11 @@
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4598,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4663,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,56 +4728,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1600</v>
       </c>
       <c r="J76" s="3">
         <v>-1600</v>
       </c>
       <c r="K76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-2100</v>
       </c>
       <c r="M76" s="3">
         <v>-2100</v>
       </c>
       <c r="N76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O76" s="3">
         <v>-4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4607,8 +4793,11 @@
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,110 +4858,116 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42185</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
       </c>
       <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
@@ -4793,13 +4988,16 @@
         <v>-200</v>
       </c>
       <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,8 +5020,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4836,8 +5035,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -4851,8 +5050,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4872,20 +5071,23 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5148,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5213,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5278,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5343,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,22 +5408,25 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-600</v>
       </c>
       <c r="F89" s="3">
         <v>-600</v>
       </c>
       <c r="G89" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
@@ -5218,28 +5435,28 @@
         <v>-300</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -5251,13 +5468,16 @@
         <v>-100</v>
       </c>
       <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,8 +5500,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5294,8 +5515,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -5309,8 +5530,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5336,14 +5557,17 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5628,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,8 +5693,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5480,8 +5710,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -5495,14 +5725,14 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -5510,8 +5740,8 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5520,16 +5750,19 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,8 +5785,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5614,8 +5848,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +5913,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +5978,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,52 +6043,55 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
@@ -5854,16 +6100,19 @@
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5885,8 +6134,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -5897,8 +6146,8 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5924,32 +6173,35 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5984,6 +6236,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>EAWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,105 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42185</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,12 +776,12 @@
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
@@ -788,8 +791,8 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -824,8 +827,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,12 +844,12 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
@@ -889,8 +895,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -903,12 +912,12 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
@@ -954,8 +963,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1041,11 +1054,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1109,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1174,8 +1193,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1207,8 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1200,8 +1222,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1212,8 +1234,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1233,14 +1255,17 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1261,8 +1286,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1270,43 +1296,43 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
@@ -1321,13 +1347,16 @@
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1340,12 +1369,12 @@
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1355,23 +1384,23 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
@@ -1386,13 +1415,16 @@
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1416,8 +1448,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1430,11 +1463,11 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1300</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
@@ -1445,24 +1478,24 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1470,19 +1503,22 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1495,11 +1531,11 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-1500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1540,14 +1576,17 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1558,23 +1597,23 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1590,20 +1629,20 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
@@ -1611,46 +1650,49 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
       </c>
       <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
@@ -1671,13 +1713,16 @@
         <v>-200</v>
       </c>
       <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1699,11 +1744,11 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1720,14 +1765,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1741,8 +1786,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1806,46 +1854,49 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-400</v>
       </c>
       <c r="K26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
@@ -1866,51 +1917,54 @@
         <v>-200</v>
       </c>
       <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
       </c>
       <c r="K27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
@@ -1931,13 +1985,16 @@
         <v>-200</v>
       </c>
       <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2001,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2066,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2131,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2196,8 +2262,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2210,11 +2279,11 @@
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1300</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
@@ -2225,24 +2294,24 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2250,57 +2319,60 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-400</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
       </c>
       <c r="K33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
@@ -2321,13 +2393,16 @@
         <v>-200</v>
       </c>
       <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2391,46 +2466,49 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-400</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
       </c>
       <c r="K35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
@@ -2451,83 +2529,89 @@
         <v>-200</v>
       </c>
       <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42185</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2551,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2576,40 +2661,41 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
@@ -2626,8 +2712,8 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2641,8 +2727,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2706,8 +2795,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2718,7 +2810,7 @@
         <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2735,8 +2827,8 @@
       <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>100</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2744,8 +2836,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2771,13 +2863,16 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>400</v>
@@ -2786,16 +2881,16 @@
         <v>400</v>
       </c>
       <c r="G44" s="3">
+        <v>400</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2809,8 +2904,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2836,8 +2931,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2851,22 +2949,22 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
       </c>
       <c r="J45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2875,7 +2973,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2886,8 +2984,8 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
@@ -2901,46 +2999,49 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2951,8 +3052,8 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
+      <c r="S46" s="3">
+        <v>0</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
@@ -2966,8 +3067,11 @@
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3031,19 +3135,22 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3054,8 +3161,8 @@
       <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -3069,8 +3176,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3096,8 +3203,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3161,8 +3271,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3226,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3291,8 +3407,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3356,8 +3475,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3421,46 +3543,49 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1300</v>
       </c>
       <c r="G54" s="3">
         <v>1300</v>
       </c>
       <c r="H54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -3471,8 +3596,8 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
+      <c r="S54" s="3">
+        <v>0</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
@@ -3486,8 +3611,11 @@
       <c r="W54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3511,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3536,8 +3665,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3551,44 +3681,44 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>1100</v>
       </c>
       <c r="I57" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="J57" s="3">
         <v>800</v>
       </c>
       <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
         <v>900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1100</v>
       </c>
       <c r="M57" s="3">
         <v>1100</v>
       </c>
       <c r="N57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3601,13 +3731,16 @@
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3616,44 +3749,44 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
       </c>
       <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3666,59 +3799,62 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
         <v>900</v>
       </c>
       <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>900</v>
       </c>
       <c r="L59" s="3">
         <v>900</v>
       </c>
       <c r="M59" s="3">
+        <v>900</v>
+      </c>
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>3000</v>
       </c>
       <c r="P59" s="3">
         <v>3000</v>
       </c>
       <c r="Q59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R59" s="3">
         <v>2400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3731,59 +3867,62 @@
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E60" s="3">
         <v>1200</v>
       </c>
       <c r="F60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2200</v>
       </c>
       <c r="N60" s="3">
         <v>2200</v>
       </c>
       <c r="O60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3900</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3796,8 +3935,11 @@
       <c r="W60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3861,8 +4003,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3884,8 +4029,8 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3899,8 +4044,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3926,8 +4071,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3991,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4056,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4121,59 +4275,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2200</v>
       </c>
       <c r="N66" s="3">
         <v>2200</v>
       </c>
       <c r="O66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P66" s="3">
         <v>4400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3900</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4186,8 +4343,11 @@
       <c r="W66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4211,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4276,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4341,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4406,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4471,59 +4641,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4536,8 +4709,11 @@
       <c r="W72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4601,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4666,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4731,59 +4913,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1600</v>
       </c>
       <c r="K76" s="3">
         <v>-1600</v>
       </c>
       <c r="L76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-2100</v>
       </c>
       <c r="N76" s="3">
         <v>-2100</v>
       </c>
       <c r="O76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="P76" s="3">
         <v>-4400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4796,8 +4981,11 @@
       <c r="W76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4861,116 +5049,122 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42185</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-400</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
       </c>
       <c r="K81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
@@ -4991,13 +5185,16 @@
         <v>-200</v>
       </c>
       <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5021,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5038,8 +5236,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -5053,8 +5251,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5074,20 +5272,23 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5151,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5216,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5281,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5346,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5411,8 +5624,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5420,16 +5636,16 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-600</v>
       </c>
       <c r="G89" s="3">
         <v>-600</v>
       </c>
       <c r="H89" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
@@ -5438,28 +5654,28 @@
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
@@ -5471,13 +5687,16 @@
         <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5501,13 +5720,14 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5518,14 +5738,14 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -5533,8 +5753,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5560,14 +5780,17 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5631,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5696,13 +5922,16 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5713,8 +5942,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -5728,14 +5957,14 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
@@ -5743,8 +5972,8 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5753,16 +5982,19 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5786,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5851,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5916,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5981,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6046,55 +6288,58 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
@@ -6103,16 +6348,19 @@
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6137,8 +6385,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
@@ -6149,8 +6397,8 @@
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -6176,8 +6424,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6185,26 +6436,26 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -6239,6 +6490,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>EAWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,117 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42185</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
@@ -779,12 +783,12 @@
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
@@ -794,8 +798,8 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -830,8 +834,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,12 +854,12 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -898,8 +905,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,12 +925,12 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -966,8 +976,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1057,11 +1071,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1145,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1196,8 +1216,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,8 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -1225,8 +1248,8 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1237,8 +1260,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1258,14 +1281,17 @@
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,8 +1313,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1299,43 +1326,43 @@
         <v>500</v>
       </c>
       <c r="F17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
       </c>
       <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
         <v>800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1350,21 +1377,24 @@
         <v>200</v>
       </c>
       <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
+      <c r="E18" s="3">
+        <v>-500</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -1372,12 +1402,12 @@
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1387,23 +1417,23 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
@@ -1418,13 +1448,16 @@
         <v>-200</v>
       </c>
       <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,16 +1482,17 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>200</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1466,12 +1500,12 @@
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1481,24 +1515,24 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1506,27 +1540,30 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-300</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1534,12 +1571,12 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1579,14 +1616,17 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1600,23 +1640,23 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1632,20 +1672,20 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
@@ -1653,49 +1693,52 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
@@ -1716,13 +1759,16 @@
         <v>-200</v>
       </c>
       <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1747,11 +1793,11 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1768,14 +1814,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1789,8 +1835,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,49 +1906,52 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
@@ -1920,54 +1972,57 @@
         <v>-200</v>
       </c>
       <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-400</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
@@ -1988,13 +2043,16 @@
         <v>-200</v>
       </c>
       <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2190,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,16 +2332,19 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>-200</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -2282,12 +2352,12 @@
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2297,24 +2367,24 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2322,60 +2392,63 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-400</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
       </c>
       <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
@@ -2396,13 +2469,16 @@
         <v>-200</v>
       </c>
       <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,49 +2545,52 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-400</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
       </c>
       <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
@@ -2532,86 +2611,92 @@
         <v>-200</v>
       </c>
       <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42185</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,43 +2748,44 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
@@ -2715,8 +2802,8 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2730,8 +2817,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,8 +2888,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2813,7 +2906,7 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2830,8 +2923,8 @@
       <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>100</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2839,8 +2932,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2866,8 +2959,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2875,7 +2971,7 @@
         <v>500</v>
       </c>
       <c r="E44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F44" s="3">
         <v>400</v>
@@ -2884,16 +2980,16 @@
         <v>400</v>
       </c>
       <c r="H44" s="3">
+        <v>400</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -2907,8 +3003,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2934,13 +3030,16 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -2952,22 +3051,22 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
       </c>
       <c r="K45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>400</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2976,7 +3075,7 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2987,8 +3086,8 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
@@ -3002,49 +3101,52 @@
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -3055,8 +3157,8 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
+      <c r="T46" s="3">
+        <v>0</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
@@ -3070,8 +3172,11 @@
       <c r="X46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,8 +3243,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3147,13 +3255,13 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
+        <v>300</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3164,8 +3272,8 @@
       <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -3179,8 +3287,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3206,8 +3314,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3274,8 +3385,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3527,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3478,8 +3598,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,49 +3669,52 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1300</v>
       </c>
       <c r="H54" s="3">
         <v>1300</v>
       </c>
       <c r="I54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -3599,8 +3725,8 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
+      <c r="T54" s="3">
+        <v>0</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
@@ -3614,8 +3740,11 @@
       <c r="X54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,8 +3796,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3684,44 +3815,44 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>1100</v>
       </c>
       <c r="J57" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K57" s="3">
         <v>800</v>
       </c>
       <c r="L57" s="3">
+        <v>800</v>
+      </c>
+      <c r="M57" s="3">
         <v>900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1100</v>
       </c>
       <c r="N57" s="3">
         <v>1100</v>
       </c>
       <c r="O57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3734,8 +3865,11 @@
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3743,7 +3877,7 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3752,44 +3886,44 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3802,62 +3936,65 @@
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>900</v>
       </c>
       <c r="F59" s="3">
         <v>900</v>
       </c>
       <c r="G59" s="3">
+        <v>900</v>
+      </c>
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>900</v>
       </c>
       <c r="M59" s="3">
         <v>900</v>
       </c>
       <c r="N59" s="3">
+        <v>900</v>
+      </c>
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
-      </c>
-      <c r="P59" s="3">
-        <v>3000</v>
       </c>
       <c r="Q59" s="3">
         <v>3000</v>
       </c>
       <c r="R59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S59" s="3">
         <v>2400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2300</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3870,62 +4007,65 @@
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1200</v>
       </c>
       <c r="F60" s="3">
         <v>1200</v>
       </c>
       <c r="G60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2200</v>
       </c>
       <c r="O60" s="3">
         <v>2200</v>
       </c>
       <c r="P60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>4400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3900</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3938,8 +4078,11 @@
       <c r="X60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4006,13 +4149,16 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4032,8 +4178,8 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -4047,8 +4193,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4074,8 +4220,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,62 +4433,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2200</v>
       </c>
       <c r="O66" s="3">
         <v>2200</v>
       </c>
       <c r="P66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>4400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3900</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4346,8 +4504,11 @@
       <c r="X66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,62 +4815,65 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4712,8 +4886,11 @@
       <c r="X72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,62 +5099,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1600</v>
       </c>
       <c r="L76" s="3">
         <v>-1600</v>
       </c>
       <c r="M76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-2100</v>
       </c>
       <c r="O76" s="3">
         <v>-2100</v>
       </c>
       <c r="P76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4984,8 +5170,11 @@
       <c r="X76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,122 +5241,128 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42185</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-400</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
       </c>
       <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
@@ -5188,13 +5383,16 @@
         <v>-200</v>
       </c>
       <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5417,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5239,8 +5438,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -5254,8 +5453,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5275,20 +5474,23 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,28 +5841,31 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-600</v>
       </c>
       <c r="H89" s="3">
         <v>-600</v>
       </c>
       <c r="I89" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
@@ -5657,28 +5874,28 @@
         <v>-300</v>
       </c>
       <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
@@ -5690,13 +5907,16 @@
         <v>-100</v>
       </c>
       <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,17 +5941,18 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -5747,8 +5968,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5756,8 +5977,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5783,14 +6004,17 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,17 +6152,20 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5945,8 +6175,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -5960,14 +6190,14 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
@@ -5975,8 +6205,8 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5985,16 +6215,19 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6252,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6321,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,58 +6534,61 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
@@ -6351,16 +6597,19 @@
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6388,8 +6637,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
@@ -6400,8 +6649,8 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -6427,38 +6676,41 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -6493,6 +6745,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EAWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>EAWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42185</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
@@ -786,12 +790,12 @@
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
@@ -801,8 +805,8 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -837,8 +841,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,12 +864,12 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -908,8 +915,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,12 +938,12 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -979,8 +989,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1006,8 +1019,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,11 +1088,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,8 +1165,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1219,8 +1239,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1259,8 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1251,8 +1274,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1263,8 +1286,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1284,14 +1307,17 @@
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,8 +1340,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1329,43 +1356,43 @@
         <v>500</v>
       </c>
       <c r="G17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
       </c>
       <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1380,37 +1407,40 @@
         <v>200</v>
       </c>
       <c r="X17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1420,23 +1450,23 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
@@ -1451,13 +1481,16 @@
         <v>-200</v>
       </c>
       <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,32 +1516,33 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1518,24 +1552,24 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1543,43 +1577,46 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1619,14 +1656,17 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1643,23 +1683,23 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1675,20 +1715,20 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>4</v>
@@ -1696,52 +1736,55 @@
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
       </c>
       <c r="L23" s="3">
         <v>-400</v>
       </c>
       <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
@@ -1762,13 +1805,16 @@
         <v>-200</v>
       </c>
       <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1796,11 +1842,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1817,14 +1863,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1838,8 +1884,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,52 +1958,55 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
       </c>
       <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
@@ -1975,57 +2027,60 @@
         <v>-200</v>
       </c>
       <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
@@ -2046,13 +2101,16 @@
         <v>-200</v>
       </c>
       <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,8 +2180,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2193,8 +2254,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2328,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,32 +2402,35 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2370,24 +2440,24 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2395,63 +2465,66 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
@@ -2472,13 +2545,16 @@
         <v>-200</v>
       </c>
       <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,52 +2624,55 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
@@ -2614,89 +2693,95 @@
         <v>-200</v>
       </c>
       <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42185</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2807,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,46 +2835,47 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
@@ -2805,8 +2892,8 @@
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2820,8 +2907,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2891,8 +2981,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2909,7 +3002,7 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2926,8 +3019,8 @@
       <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>100</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2935,8 +3028,8 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2962,8 +3055,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2974,7 +3070,7 @@
         <v>500</v>
       </c>
       <c r="F44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G44" s="3">
         <v>400</v>
@@ -2983,16 +3079,16 @@
         <v>400</v>
       </c>
       <c r="I44" s="3">
+        <v>400</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -3006,8 +3102,8 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -3033,8 +3129,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3042,7 +3141,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -3054,22 +3153,22 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>400</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -3078,7 +3177,7 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3089,8 +3188,8 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
@@ -3104,52 +3203,55 @@
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -3160,8 +3262,8 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
+      <c r="U46" s="3">
+        <v>0</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>4</v>
@@ -3175,8 +3277,11 @@
       <c r="Y46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3246,25 +3351,28 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
       </c>
       <c r="F48" s="3">
+        <v>300</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -3275,8 +3383,8 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>100</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -3290,8 +3398,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3317,8 +3425,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3388,8 +3499,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3573,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,8 +3647,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3601,8 +3721,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,52 +3795,55 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1300</v>
       </c>
       <c r="I54" s="3">
         <v>1300</v>
       </c>
       <c r="J54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -3728,8 +3854,8 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
+      <c r="U54" s="3">
+        <v>0</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>4</v>
@@ -3743,8 +3869,11 @@
       <c r="Y54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +3899,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,13 +3927,14 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -3818,44 +3949,44 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>1100</v>
       </c>
       <c r="K57" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L57" s="3">
         <v>800</v>
       </c>
       <c r="M57" s="3">
+        <v>800</v>
+      </c>
+      <c r="N57" s="3">
         <v>900</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1100</v>
       </c>
       <c r="O57" s="3">
         <v>1100</v>
       </c>
       <c r="P57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3868,8 +3999,11 @@
       <c r="Y57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3880,7 +4014,7 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3889,44 +4023,44 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3939,65 +4073,68 @@
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>900</v>
       </c>
       <c r="H59" s="3">
+        <v>900</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>900</v>
       </c>
       <c r="N59" s="3">
         <v>900</v>
       </c>
       <c r="O59" s="3">
+        <v>900</v>
+      </c>
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>3000</v>
       </c>
       <c r="R59" s="3">
         <v>3000</v>
       </c>
       <c r="S59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T59" s="3">
         <v>2400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2300</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4010,65 +4147,68 @@
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1200</v>
       </c>
       <c r="G60" s="3">
         <v>1200</v>
       </c>
       <c r="H60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2200</v>
       </c>
       <c r="P60" s="3">
         <v>2200</v>
       </c>
       <c r="Q60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R60" s="3">
         <v>4400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3900</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4081,13 +4221,16 @@
       <c r="Y60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4152,16 +4295,19 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4181,8 +4327,8 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -4196,8 +4342,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4223,8 +4369,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4443,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4517,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,65 +4591,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2200</v>
       </c>
       <c r="P66" s="3">
         <v>2200</v>
       </c>
       <c r="Q66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R66" s="3">
         <v>4400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3900</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4507,8 +4665,11 @@
       <c r="Y66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4695,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4767,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +4841,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4747,8 +4915,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,65 +4989,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4889,8 +5063,11 @@
       <c r="Y72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5137,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5211,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,65 +5285,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1600</v>
       </c>
       <c r="M76" s="3">
         <v>-1600</v>
       </c>
       <c r="N76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-2100</v>
       </c>
       <c r="P76" s="3">
         <v>-2100</v>
       </c>
       <c r="Q76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R76" s="3">
         <v>-4400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3900</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5173,8 +5359,11 @@
       <c r="Y76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,128 +5433,134 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42185</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
@@ -5386,13 +5581,16 @@
         <v>-200</v>
       </c>
       <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,8 +5616,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5441,8 +5640,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -5456,8 +5655,8 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5477,20 +5676,23 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5762,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +5836,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +5910,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +5984,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,31 +6058,34 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-300</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-600</v>
       </c>
       <c r="I89" s="3">
         <v>-600</v>
       </c>
       <c r="J89" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
@@ -5877,28 +6094,28 @@
         <v>-300</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
@@ -5910,13 +6127,16 @@
         <v>-100</v>
       </c>
       <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,8 +6162,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5951,11 +6172,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -5971,8 +6192,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5980,8 +6201,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6007,14 +6228,17 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6308,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,8 +6382,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6164,11 +6394,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -6178,8 +6408,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -6193,14 +6423,14 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
@@ -6208,8 +6438,8 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6218,16 +6448,19 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,8 +6486,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6324,8 +6558,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6632,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6706,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,61 +6780,64 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
@@ -6600,21 +6846,24 @@
         <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6640,8 +6889,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
@@ -6652,8 +6901,8 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -6679,41 +6928,44 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -6748,6 +7000,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
